--- a/xlsx/_baidu_安徒生童话_intext.xlsx
+++ b/xlsx/_baidu_安徒生童话_intext.xlsx
@@ -20,7 +20,7 @@
     <t>安徒生童话</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/11449855.htm</t>
+    <t>https://baike.baidu.com/view/8407031.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BD%E5%A4%A9%E9%B9%85/85050</t>

--- a/xlsx/_baidu_安徒生童话_intext.xlsx
+++ b/xlsx/_baidu_安徒生童话_intext.xlsx
@@ -20,7 +20,7 @@
     <t>安徒生童话</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/8407031.htm</t>
+    <t>https://baike.baidu.com/view/11273484.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BD%E5%A4%A9%E9%B9%85/85050</t>
